--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-contact</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-contact</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>ror-function-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-contact-function-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-function-contact}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>ConfidentialityLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>

--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,6 +397,19 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.extension:purposeContact.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -421,17 +434,17 @@
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
+    <t>Extension.extension:ror-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-confidentiality-level</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour définir le niveau de restriction de l'accès aux attributs de la classe Contact.</t>
   </si>
   <si>
     <t>Extension.extension:telecommunication</t>
@@ -760,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -769,9 +782,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2330,26 +2343,26 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" t="s" s="2">
+      <c r="AC15" s="2"/>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>111</v>
@@ -2375,7 +2388,7 @@
         <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>127</v>
@@ -2400,13 +2413,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2433,13 +2446,11 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -2457,32 +2468,34 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>73</v>
       </c>
@@ -2503,13 +2516,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2560,30 +2573,30 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2594,7 +2607,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2606,13 +2619,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2651,42 +2664,42 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2694,10 +2707,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2709,24 +2722,22 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -2756,42 +2767,42 @@
         <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2799,7 +2810,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -2814,22 +2825,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -2871,19 +2884,19 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>106</v>
@@ -2891,20 +2904,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -2919,13 +2930,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2976,22 +2987,22 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -3009,10 +3020,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3024,13 +3035,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3101,12 +3112,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>73</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3127,13 +3140,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3184,30 +3197,30 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3218,7 +3231,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3230,13 +3243,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3275,42 +3288,42 @@
         <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3318,10 +3331,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3333,24 +3346,22 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>73</v>
@@ -3380,42 +3391,42 @@
         <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3423,7 +3434,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -3438,22 +3449,24 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>73</v>
@@ -3495,19 +3508,19 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>106</v>
@@ -3515,10 +3528,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3526,7 +3539,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -3541,24 +3554,22 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>73</v>
@@ -3600,19 +3611,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>106</v>
@@ -3620,10 +3631,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3631,10 +3642,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -3646,22 +3657,24 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>73</v>
@@ -3703,21 +3716,124 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="B29" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AJ29" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>106</v>
       </c>
     </row>
